--- a/resources/del_logs.xlsx
+++ b/resources/del_logs.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D214"/>
+  <dimension ref="A1:D196"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -494,12 +494,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>피포페인팅</t>
+          <t>아이윙스</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>피포페인팅</t>
+          <t>아이윙스</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -512,12 +512,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>아이윙스</t>
+          <t>피포페인팅</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>아이윙스</t>
+          <t>피포페인팅</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -530,12 +530,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>피포페인팅</t>
+          <t>아이윙스</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>피포페인팅</t>
+          <t>아이윙스</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -548,12 +548,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>아이윙스</t>
+          <t>피포페인팅</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>아이윙스</t>
+          <t>피포페인팅</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -566,12 +566,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>피포페인팅</t>
+          <t>아이윙스</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>피포페인팅</t>
+          <t>아이윙스</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -584,12 +584,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>아이윙스</t>
+          <t>피포페인팅</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>아이윙스</t>
+          <t>피포페인팅</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -674,12 +674,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>피포페인팅</t>
+          <t>아이윙스</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>피포페인팅</t>
+          <t>아이윙스</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -692,12 +692,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>아이윙스</t>
+          <t>피포페인팅</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>아이윙스</t>
+          <t>피포페인팅</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -710,12 +710,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>피포페인팅</t>
+          <t>아이윙스</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>피포페인팅</t>
+          <t>아이윙스</t>
         </is>
       </c>
       <c r="D16" t="n">
@@ -728,12 +728,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>아이윙스</t>
+          <t>피포페인팅</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>아이윙스</t>
+          <t>피포페인팅</t>
         </is>
       </c>
       <c r="D17" t="n">
@@ -1016,12 +1016,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>ABM</t>
+          <t>ABM도매콜</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>ABM</t>
+          <t>ABM도매콜</t>
         </is>
       </c>
       <c r="D33" t="n">
@@ -1052,16 +1052,16 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>도매콜</t>
+          <t>ABM도매콜</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>도매콜</t>
+          <t>ABM도매콜</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="36">
@@ -1088,16 +1088,16 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>ABM</t>
+          <t>ABM도매콜</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>ABM</t>
+          <t>ABM도매콜</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="38">
@@ -1106,16 +1106,16 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>도매콜</t>
+          <t>ABM</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>도매콜</t>
+          <t>ABM</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="39">
@@ -1124,16 +1124,16 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>ABM</t>
+          <t>ABM도매콜</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>ABM</t>
+          <t>ABM도매콜</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="40">
@@ -1151,7 +1151,7 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="41">
@@ -1160,16 +1160,16 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>도매콜</t>
+          <t>ABM도매콜</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>도매콜</t>
+          <t>ABM도매콜</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="42">
@@ -1178,16 +1178,16 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>ABM</t>
+          <t>ABM도매콜</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>ABM</t>
+          <t>ABM도매콜</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="43">
@@ -1205,7 +1205,7 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="44">
@@ -1214,16 +1214,16 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>도매콜</t>
+          <t>ABM도매콜</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>도매콜</t>
+          <t>ABM도매콜</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="45">
@@ -1241,7 +1241,7 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="46">
@@ -1250,16 +1250,16 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>도매콜</t>
+          <t>ABM도매콜</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>도매콜</t>
+          <t>ABM도매콜</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="47">
@@ -1268,16 +1268,16 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>ABM</t>
+          <t>ABM도매콜</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>ABM</t>
+          <t>ABM도매콜</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="48">
@@ -1295,7 +1295,7 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="49">
@@ -1304,16 +1304,16 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>도매콜</t>
+          <t>ABM도매콜</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>도매콜</t>
+          <t>ABM도매콜</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="50">
@@ -1322,16 +1322,16 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>ABM</t>
+          <t>ABM도매콜</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>ABM</t>
+          <t>ABM도매콜</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="51">
@@ -1340,16 +1340,16 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>ABM</t>
+          <t>ABM도매콜</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>ABM</t>
+          <t>ABM도매콜</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>121</v>
+        <v>126</v>
       </c>
     </row>
     <row r="52">
@@ -1358,16 +1358,16 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>도매콜</t>
+          <t>ABM도매콜</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>도매콜</t>
+          <t>ABM도매콜</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>121</v>
+        <v>127</v>
       </c>
     </row>
     <row r="53">
@@ -1376,16 +1376,16 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>ABM</t>
+          <t>ABM도매콜</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>ABM</t>
+          <t>ABM도매콜</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>122</v>
+        <v>128</v>
       </c>
     </row>
     <row r="54">
@@ -1394,16 +1394,16 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>도매콜</t>
+          <t>ABM도매콜</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>도매콜</t>
+          <t>ABM도매콜</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>122</v>
+        <v>129</v>
       </c>
     </row>
     <row r="55">
@@ -1412,16 +1412,16 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>ABM</t>
+          <t>ABM도매콜</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>ABM</t>
+          <t>ABM도매콜</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>123</v>
+        <v>130</v>
       </c>
     </row>
     <row r="56">
@@ -1430,16 +1430,16 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>ABM</t>
+          <t>ABM도매콜</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>ABM</t>
+          <t>ABM도매콜</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>123</v>
+        <v>131</v>
       </c>
     </row>
     <row r="57">
@@ -1448,16 +1448,16 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>도매콜</t>
+          <t>ABM도매콜</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>도매콜</t>
+          <t>ABM도매콜</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>123</v>
+        <v>132</v>
       </c>
     </row>
     <row r="58">
@@ -1466,16 +1466,16 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>ABM</t>
+          <t>후니케이스</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>ABM</t>
+          <t>후니케이스</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>124</v>
+        <v>137</v>
       </c>
     </row>
     <row r="59">
@@ -1484,16 +1484,16 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>도매콜</t>
+          <t>후니케이스</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>도매콜</t>
+          <t>후니케이스</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>124</v>
+        <v>138</v>
       </c>
     </row>
     <row r="60">
@@ -1502,16 +1502,16 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>ABM</t>
+          <t>애니포트</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>ABM</t>
+          <t>애니포트</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>125</v>
+        <v>143</v>
       </c>
     </row>
     <row r="61">
@@ -1520,16 +1520,16 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>도매콜</t>
+          <t>후니케이스</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>도매콜</t>
+          <t>후니케이스</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>125</v>
+        <v>166</v>
       </c>
     </row>
     <row r="62">
@@ -1538,16 +1538,16 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>ABM</t>
+          <t>후니케이스</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>ABM</t>
+          <t>후니케이스</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>126</v>
+        <v>167</v>
       </c>
     </row>
     <row r="63">
@@ -1556,16 +1556,16 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>도매콜</t>
+          <t>다번다</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>도매콜</t>
+          <t>다번다</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>126</v>
+        <v>172</v>
       </c>
     </row>
     <row r="64">
@@ -1574,16 +1574,16 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>ABM</t>
+          <t>정확도</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>ABM</t>
+          <t>정확도</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>127</v>
+        <v>174</v>
       </c>
     </row>
     <row r="65">
@@ -1592,16 +1592,16 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>도매콜</t>
+          <t>후니케이스</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>도매콜</t>
+          <t>후니케이스</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>127</v>
+        <v>179</v>
       </c>
     </row>
     <row r="66">
@@ -1610,16 +1610,16 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>ABM</t>
+          <t>다번다</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>ABM</t>
+          <t>다번다</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>128</v>
+        <v>182</v>
       </c>
     </row>
     <row r="67">
@@ -1628,16 +1628,16 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>도매콜</t>
+          <t>후니케이스</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>도매콜</t>
+          <t>후니케이스</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>128</v>
+        <v>183</v>
       </c>
     </row>
     <row r="68">
@@ -1646,16 +1646,16 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>ABM</t>
+          <t>후니케이스</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>ABM</t>
+          <t>후니케이스</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>129</v>
+        <v>184</v>
       </c>
     </row>
     <row r="69">
@@ -1664,16 +1664,16 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>도매콜</t>
+          <t>후니케이스</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>도매콜</t>
+          <t>후니케이스</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>129</v>
+        <v>185</v>
       </c>
     </row>
     <row r="70">
@@ -1682,16 +1682,16 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>ABM</t>
+          <t>아이윙스</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>ABM</t>
+          <t>아이윙스</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>130</v>
+        <v>196</v>
       </c>
     </row>
     <row r="71">
@@ -1700,16 +1700,16 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>도매콜</t>
+          <t>피포페인팅</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>도매콜</t>
+          <t>피포페인팅</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>130</v>
+        <v>196</v>
       </c>
     </row>
     <row r="72">
@@ -1718,16 +1718,16 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>ABM</t>
+          <t>후니케이스</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>ABM</t>
+          <t>후니케이스</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>131</v>
+        <v>201</v>
       </c>
     </row>
     <row r="73">
@@ -1736,16 +1736,16 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>도매콜</t>
+          <t>후니케이스</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>도매콜</t>
+          <t>후니케이스</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>131</v>
+        <v>205</v>
       </c>
     </row>
     <row r="74">
@@ -1754,16 +1754,16 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>ABM</t>
+          <t>후니케이스</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>ABM</t>
+          <t>후니케이스</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>132</v>
+        <v>206</v>
       </c>
     </row>
     <row r="75">
@@ -1772,16 +1772,16 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>도매콜</t>
+          <t>후니케이스</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>도매콜</t>
+          <t>후니케이스</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>132</v>
+        <v>207</v>
       </c>
     </row>
     <row r="76">
@@ -1799,7 +1799,7 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>137</v>
+        <v>208</v>
       </c>
     </row>
     <row r="77">
@@ -1817,7 +1817,7 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>138</v>
+        <v>209</v>
       </c>
     </row>
     <row r="78">
@@ -1826,16 +1826,16 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>애니포트</t>
+          <t>후니케이스</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>애니포트</t>
+          <t>후니케이스</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>143</v>
+        <v>211</v>
       </c>
     </row>
     <row r="79">
@@ -1853,7 +1853,7 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>166</v>
+        <v>212</v>
       </c>
     </row>
     <row r="80">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>167</v>
+        <v>213</v>
       </c>
     </row>
     <row r="81">
@@ -1880,16 +1880,16 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>다번다</t>
+          <t>아이윙스</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>다번다</t>
+          <t>아이윙스</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>172</v>
+        <v>216</v>
       </c>
     </row>
     <row r="82">
@@ -1898,16 +1898,16 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>정확도</t>
+          <t>아이윙스</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>정확도</t>
+          <t>아이윙스</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>174</v>
+        <v>245</v>
       </c>
     </row>
     <row r="83">
@@ -1916,16 +1916,16 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>후니케이스</t>
+          <t>피포페인팅</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>후니케이스</t>
+          <t>피포페인팅</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>179</v>
+        <v>245</v>
       </c>
     </row>
     <row r="84">
@@ -1943,7 +1943,7 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>182</v>
+        <v>253</v>
       </c>
     </row>
     <row r="85">
@@ -1952,16 +1952,16 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>후니케이스</t>
+          <t>헤어슈슈</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>후니케이스</t>
+          <t>헤어슈슈</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>183</v>
+        <v>275</v>
       </c>
     </row>
     <row r="86">
@@ -1970,16 +1970,16 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>후니케이스</t>
+          <t>헤어슈슈</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>후니케이스</t>
+          <t>헤어슈슈</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>184</v>
+        <v>276</v>
       </c>
     </row>
     <row r="87">
@@ -1988,16 +1988,16 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>후니케이스</t>
+          <t>헤어슈슈</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>후니케이스</t>
+          <t>헤어슈슈</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>185</v>
+        <v>277</v>
       </c>
     </row>
     <row r="88">
@@ -2006,16 +2006,16 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>피포페인팅</t>
+          <t>헤어슈슈</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>피포페인팅</t>
+          <t>헤어슈슈</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>196</v>
+        <v>279</v>
       </c>
     </row>
     <row r="89">
@@ -2024,16 +2024,16 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>아이윙스</t>
+          <t>헤어슈슈</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>아이윙스</t>
+          <t>헤어슈슈</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>196</v>
+        <v>280</v>
       </c>
     </row>
     <row r="90">
@@ -2042,16 +2042,16 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>후니케이스</t>
+          <t>헤어슈슈</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>후니케이스</t>
+          <t>헤어슈슈</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>201</v>
+        <v>281</v>
       </c>
     </row>
     <row r="91">
@@ -2060,16 +2060,16 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>후니케이스</t>
+          <t>헤어슈슈</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>후니케이스</t>
+          <t>헤어슈슈</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>205</v>
+        <v>282</v>
       </c>
     </row>
     <row r="92">
@@ -2078,16 +2078,16 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>후니케이스</t>
+          <t>헤어슈슈</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>후니케이스</t>
+          <t>헤어슈슈</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>206</v>
+        <v>283</v>
       </c>
     </row>
     <row r="93">
@@ -2096,16 +2096,16 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>후니케이스</t>
+          <t>헤어슈슈</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>후니케이스</t>
+          <t>헤어슈슈</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>207</v>
+        <v>284</v>
       </c>
     </row>
     <row r="94">
@@ -2114,16 +2114,16 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>후니케이스</t>
+          <t>헤어슈슈</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>후니케이스</t>
+          <t>헤어슈슈</t>
         </is>
       </c>
       <c r="D94" t="n">
-        <v>208</v>
+        <v>285</v>
       </c>
     </row>
     <row r="95">
@@ -2132,16 +2132,16 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>후니케이스</t>
+          <t>헤어슈슈</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>후니케이스</t>
+          <t>헤어슈슈</t>
         </is>
       </c>
       <c r="D95" t="n">
-        <v>209</v>
+        <v>286</v>
       </c>
     </row>
     <row r="96">
@@ -2150,16 +2150,16 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>후니케이스</t>
+          <t>헤어슈슈</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>후니케이스</t>
+          <t>헤어슈슈</t>
         </is>
       </c>
       <c r="D96" t="n">
-        <v>211</v>
+        <v>287</v>
       </c>
     </row>
     <row r="97">
@@ -2168,16 +2168,16 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>후니케이스</t>
+          <t>헤어슈슈</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>후니케이스</t>
+          <t>헤어슈슈</t>
         </is>
       </c>
       <c r="D97" t="n">
-        <v>212</v>
+        <v>288</v>
       </c>
     </row>
     <row r="98">
@@ -2186,16 +2186,16 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>후니케이스</t>
+          <t>헤어슈슈</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>후니케이스</t>
+          <t>헤어슈슈</t>
         </is>
       </c>
       <c r="D98" t="n">
-        <v>213</v>
+        <v>289</v>
       </c>
     </row>
     <row r="99">
@@ -2204,16 +2204,16 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>아이윙스</t>
+          <t>헤어슈슈</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>아이윙스</t>
+          <t>헤어슈슈</t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>216</v>
+        <v>290</v>
       </c>
     </row>
     <row r="100">
@@ -2222,16 +2222,16 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>피포페인팅</t>
+          <t>헤어슈슈</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>피포페인팅</t>
+          <t>헤어슈슈</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>245</v>
+        <v>291</v>
       </c>
     </row>
     <row r="101">
@@ -2240,16 +2240,16 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>아이윙스</t>
+          <t>헤어슈슈</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>아이윙스</t>
+          <t>헤어슈슈</t>
         </is>
       </c>
       <c r="D101" t="n">
-        <v>245</v>
+        <v>292</v>
       </c>
     </row>
     <row r="102">
@@ -2258,16 +2258,16 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>다번다</t>
+          <t>헤어슈슈</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>다번다</t>
+          <t>헤어슈슈</t>
         </is>
       </c>
       <c r="D102" t="n">
-        <v>253</v>
+        <v>293</v>
       </c>
     </row>
     <row r="103">
@@ -2285,7 +2285,7 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>275</v>
+        <v>294</v>
       </c>
     </row>
     <row r="104">
@@ -2303,7 +2303,7 @@
         </is>
       </c>
       <c r="D104" t="n">
-        <v>276</v>
+        <v>295</v>
       </c>
     </row>
     <row r="105">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>277</v>
+        <v>296</v>
       </c>
     </row>
     <row r="106">
@@ -2330,16 +2330,16 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>헤어슈슈</t>
+          <t>후니케이스</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>헤어슈슈</t>
+          <t>후니케이스</t>
         </is>
       </c>
       <c r="D106" t="n">
-        <v>279</v>
+        <v>304</v>
       </c>
     </row>
     <row r="107">
@@ -2348,16 +2348,16 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>헤어슈슈</t>
+          <t>후니케이스</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>헤어슈슈</t>
+          <t>후니케이스</t>
         </is>
       </c>
       <c r="D107" t="n">
-        <v>280</v>
+        <v>305</v>
       </c>
     </row>
     <row r="108">
@@ -2366,16 +2366,16 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>헤어슈슈</t>
+          <t>후니케이스</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>헤어슈슈</t>
+          <t>후니케이스</t>
         </is>
       </c>
       <c r="D108" t="n">
-        <v>281</v>
+        <v>344</v>
       </c>
     </row>
     <row r="109">
@@ -2384,16 +2384,16 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>헤어슈슈</t>
+          <t>후니케이스</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>헤어슈슈</t>
+          <t>후니케이스</t>
         </is>
       </c>
       <c r="D109" t="n">
-        <v>282</v>
+        <v>345</v>
       </c>
     </row>
     <row r="110">
@@ -2402,16 +2402,16 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>헤어슈슈</t>
+          <t>후니케이스</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>헤어슈슈</t>
+          <t>후니케이스</t>
         </is>
       </c>
       <c r="D110" t="n">
-        <v>283</v>
+        <v>346</v>
       </c>
     </row>
     <row r="111">
@@ -2420,16 +2420,16 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>헤어슈슈</t>
+          <t>후니케이스</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>헤어슈슈</t>
+          <t>후니케이스</t>
         </is>
       </c>
       <c r="D111" t="n">
-        <v>284</v>
+        <v>347</v>
       </c>
     </row>
     <row r="112">
@@ -2438,16 +2438,16 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>헤어슈슈</t>
+          <t>정확도</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>헤어슈슈</t>
+          <t>정확도</t>
         </is>
       </c>
       <c r="D112" t="n">
-        <v>285</v>
+        <v>348</v>
       </c>
     </row>
     <row r="113">
@@ -2456,16 +2456,16 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>헤어슈슈</t>
+          <t>정확도</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>헤어슈슈</t>
+          <t>정확도</t>
         </is>
       </c>
       <c r="D113" t="n">
-        <v>286</v>
+        <v>354</v>
       </c>
     </row>
     <row r="114">
@@ -2474,16 +2474,16 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>헤어슈슈</t>
+          <t>베이비캠프</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>헤어슈슈</t>
+          <t>베이비캠프</t>
         </is>
       </c>
       <c r="D114" t="n">
-        <v>287</v>
+        <v>377</v>
       </c>
     </row>
     <row r="115">
@@ -2492,16 +2492,16 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>헤어슈슈</t>
+          <t>정확도</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>헤어슈슈</t>
+          <t>정확도</t>
         </is>
       </c>
       <c r="D115" t="n">
-        <v>288</v>
+        <v>379</v>
       </c>
     </row>
     <row r="116">
@@ -2510,16 +2510,16 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>헤어슈슈</t>
+          <t>다번다</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>헤어슈슈</t>
+          <t>다번다</t>
         </is>
       </c>
       <c r="D116" t="n">
-        <v>289</v>
+        <v>380</v>
       </c>
     </row>
     <row r="117">
@@ -2528,16 +2528,16 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>헤어슈슈</t>
+          <t>아이윙스</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>헤어슈슈</t>
+          <t>아이윙스</t>
         </is>
       </c>
       <c r="D117" t="n">
-        <v>290</v>
+        <v>383</v>
       </c>
     </row>
     <row r="118">
@@ -2546,16 +2546,16 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>헤어슈슈</t>
+          <t>피포페인팅</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>헤어슈슈</t>
+          <t>피포페인팅</t>
         </is>
       </c>
       <c r="D118" t="n">
-        <v>291</v>
+        <v>383</v>
       </c>
     </row>
     <row r="119">
@@ -2564,16 +2564,16 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>헤어슈슈</t>
+          <t>가디언블루</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>헤어슈슈</t>
+          <t>가디언블루</t>
         </is>
       </c>
       <c r="D119" t="n">
-        <v>292</v>
+        <v>403</v>
       </c>
     </row>
     <row r="120">
@@ -2582,16 +2582,16 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>헤어슈슈</t>
+          <t>유앤미</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>헤어슈슈</t>
+          <t>유앤미</t>
         </is>
       </c>
       <c r="D120" t="n">
-        <v>293</v>
+        <v>405</v>
       </c>
     </row>
     <row r="121">
@@ -2600,16 +2600,16 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>헤어슈슈</t>
+          <t>그린피앤에스</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>헤어슈슈</t>
+          <t>그린피앤에스</t>
         </is>
       </c>
       <c r="D121" t="n">
-        <v>294</v>
+        <v>405</v>
       </c>
     </row>
     <row r="122">
@@ -2618,16 +2618,16 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>헤어슈슈</t>
+          <t>유앤미</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>헤어슈슈</t>
+          <t>유앤미</t>
         </is>
       </c>
       <c r="D122" t="n">
-        <v>295</v>
+        <v>406</v>
       </c>
     </row>
     <row r="123">
@@ -2636,16 +2636,16 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>헤어슈슈</t>
+          <t>그린피앤에스</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>헤어슈슈</t>
+          <t>그린피앤에스</t>
         </is>
       </c>
       <c r="D123" t="n">
-        <v>296</v>
+        <v>406</v>
       </c>
     </row>
     <row r="124">
@@ -2654,16 +2654,16 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>후니케이스</t>
+          <t>유앤미</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>후니케이스</t>
+          <t>유앤미</t>
         </is>
       </c>
       <c r="D124" t="n">
-        <v>304</v>
+        <v>407</v>
       </c>
     </row>
     <row r="125">
@@ -2672,16 +2672,16 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>후니케이스</t>
+          <t>그린피앤에스</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>후니케이스</t>
+          <t>그린피앤에스</t>
         </is>
       </c>
       <c r="D125" t="n">
-        <v>305</v>
+        <v>407</v>
       </c>
     </row>
     <row r="126">
@@ -2690,16 +2690,16 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>후니케이스</t>
+          <t>유앤미</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>후니케이스</t>
+          <t>유앤미</t>
         </is>
       </c>
       <c r="D126" t="n">
-        <v>344</v>
+        <v>408</v>
       </c>
     </row>
     <row r="127">
@@ -2708,16 +2708,16 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>후니케이스</t>
+          <t>그린피앤에스</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>후니케이스</t>
+          <t>그린피앤에스</t>
         </is>
       </c>
       <c r="D127" t="n">
-        <v>345</v>
+        <v>408</v>
       </c>
     </row>
     <row r="128">
@@ -2726,16 +2726,16 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>후니케이스</t>
+          <t>유앤미</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>후니케이스</t>
+          <t>유앤미</t>
         </is>
       </c>
       <c r="D128" t="n">
-        <v>346</v>
+        <v>409</v>
       </c>
     </row>
     <row r="129">
@@ -2744,16 +2744,16 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>후니케이스</t>
+          <t>그린피앤에스</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>후니케이스</t>
+          <t>그린피앤에스</t>
         </is>
       </c>
       <c r="D129" t="n">
-        <v>347</v>
+        <v>409</v>
       </c>
     </row>
     <row r="130">
@@ -2762,16 +2762,16 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>정확도</t>
+          <t>유앤미</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>정확도</t>
+          <t>유앤미</t>
         </is>
       </c>
       <c r="D130" t="n">
-        <v>348</v>
+        <v>410</v>
       </c>
     </row>
     <row r="131">
@@ -2780,16 +2780,16 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>정확도</t>
+          <t>그린피앤에스</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>정확도</t>
+          <t>그린피앤에스</t>
         </is>
       </c>
       <c r="D131" t="n">
-        <v>354</v>
+        <v>410</v>
       </c>
     </row>
     <row r="132">
@@ -2798,16 +2798,16 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>베이비캠프</t>
+          <t>유앤미</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>베이비캠프</t>
+          <t>유앤미</t>
         </is>
       </c>
       <c r="D132" t="n">
-        <v>377</v>
+        <v>411</v>
       </c>
     </row>
     <row r="133">
@@ -2816,16 +2816,16 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>정확도</t>
+          <t>그린피앤에스</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>정확도</t>
+          <t>그린피앤에스</t>
         </is>
       </c>
       <c r="D133" t="n">
-        <v>379</v>
+        <v>411</v>
       </c>
     </row>
     <row r="134">
@@ -2834,16 +2834,16 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>다번다</t>
+          <t>유앤미</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>다번다</t>
+          <t>유앤미</t>
         </is>
       </c>
       <c r="D134" t="n">
-        <v>380</v>
+        <v>412</v>
       </c>
     </row>
     <row r="135">
@@ -2852,16 +2852,16 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>피포페인팅</t>
+          <t>그린피앤에스</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>피포페인팅</t>
+          <t>그린피앤에스</t>
         </is>
       </c>
       <c r="D135" t="n">
-        <v>383</v>
+        <v>412</v>
       </c>
     </row>
     <row r="136">
@@ -2870,16 +2870,16 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>아이윙스</t>
+          <t>유앤미</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>아이윙스</t>
+          <t>유앤미</t>
         </is>
       </c>
       <c r="D136" t="n">
-        <v>383</v>
+        <v>413</v>
       </c>
     </row>
     <row r="137">
@@ -2888,16 +2888,16 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>가디언블루</t>
+          <t>그린피앤에스</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>가디언블루</t>
+          <t>그린피앤에스</t>
         </is>
       </c>
       <c r="D137" t="n">
-        <v>403</v>
+        <v>413</v>
       </c>
     </row>
     <row r="138">
@@ -2915,7 +2915,7 @@
         </is>
       </c>
       <c r="D138" t="n">
-        <v>405</v>
+        <v>414</v>
       </c>
     </row>
     <row r="139">
@@ -2933,7 +2933,7 @@
         </is>
       </c>
       <c r="D139" t="n">
-        <v>405</v>
+        <v>414</v>
       </c>
     </row>
     <row r="140">
@@ -2951,7 +2951,7 @@
         </is>
       </c>
       <c r="D140" t="n">
-        <v>406</v>
+        <v>415</v>
       </c>
     </row>
     <row r="141">
@@ -2969,7 +2969,7 @@
         </is>
       </c>
       <c r="D141" t="n">
-        <v>406</v>
+        <v>415</v>
       </c>
     </row>
     <row r="142">
@@ -2987,7 +2987,7 @@
         </is>
       </c>
       <c r="D142" t="n">
-        <v>407</v>
+        <v>416</v>
       </c>
     </row>
     <row r="143">
@@ -3005,7 +3005,7 @@
         </is>
       </c>
       <c r="D143" t="n">
-        <v>407</v>
+        <v>416</v>
       </c>
     </row>
     <row r="144">
@@ -3023,7 +3023,7 @@
         </is>
       </c>
       <c r="D144" t="n">
-        <v>408</v>
+        <v>417</v>
       </c>
     </row>
     <row r="145">
@@ -3041,7 +3041,7 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>408</v>
+        <v>417</v>
       </c>
     </row>
     <row r="146">
@@ -3059,7 +3059,7 @@
         </is>
       </c>
       <c r="D146" t="n">
-        <v>409</v>
+        <v>418</v>
       </c>
     </row>
     <row r="147">
@@ -3077,7 +3077,7 @@
         </is>
       </c>
       <c r="D147" t="n">
-        <v>409</v>
+        <v>418</v>
       </c>
     </row>
     <row r="148">
@@ -3095,7 +3095,7 @@
         </is>
       </c>
       <c r="D148" t="n">
-        <v>410</v>
+        <v>419</v>
       </c>
     </row>
     <row r="149">
@@ -3113,7 +3113,7 @@
         </is>
       </c>
       <c r="D149" t="n">
-        <v>410</v>
+        <v>419</v>
       </c>
     </row>
     <row r="150">
@@ -3131,7 +3131,7 @@
         </is>
       </c>
       <c r="D150" t="n">
-        <v>411</v>
+        <v>420</v>
       </c>
     </row>
     <row r="151">
@@ -3149,7 +3149,7 @@
         </is>
       </c>
       <c r="D151" t="n">
-        <v>411</v>
+        <v>420</v>
       </c>
     </row>
     <row r="152">
@@ -3167,7 +3167,7 @@
         </is>
       </c>
       <c r="D152" t="n">
-        <v>412</v>
+        <v>421</v>
       </c>
     </row>
     <row r="153">
@@ -3185,7 +3185,7 @@
         </is>
       </c>
       <c r="D153" t="n">
-        <v>412</v>
+        <v>421</v>
       </c>
     </row>
     <row r="154">
@@ -3203,7 +3203,7 @@
         </is>
       </c>
       <c r="D154" t="n">
-        <v>413</v>
+        <v>422</v>
       </c>
     </row>
     <row r="155">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="D155" t="n">
-        <v>413</v>
+        <v>422</v>
       </c>
     </row>
     <row r="156">
@@ -3239,7 +3239,7 @@
         </is>
       </c>
       <c r="D156" t="n">
-        <v>414</v>
+        <v>423</v>
       </c>
     </row>
     <row r="157">
@@ -3257,7 +3257,7 @@
         </is>
       </c>
       <c r="D157" t="n">
-        <v>414</v>
+        <v>423</v>
       </c>
     </row>
     <row r="158">
@@ -3275,7 +3275,7 @@
         </is>
       </c>
       <c r="D158" t="n">
-        <v>415</v>
+        <v>424</v>
       </c>
     </row>
     <row r="159">
@@ -3293,7 +3293,7 @@
         </is>
       </c>
       <c r="D159" t="n">
-        <v>415</v>
+        <v>424</v>
       </c>
     </row>
     <row r="160">
@@ -3311,7 +3311,7 @@
         </is>
       </c>
       <c r="D160" t="n">
-        <v>416</v>
+        <v>425</v>
       </c>
     </row>
     <row r="161">
@@ -3329,7 +3329,7 @@
         </is>
       </c>
       <c r="D161" t="n">
-        <v>416</v>
+        <v>425</v>
       </c>
     </row>
     <row r="162">
@@ -3347,7 +3347,7 @@
         </is>
       </c>
       <c r="D162" t="n">
-        <v>417</v>
+        <v>426</v>
       </c>
     </row>
     <row r="163">
@@ -3365,7 +3365,7 @@
         </is>
       </c>
       <c r="D163" t="n">
-        <v>417</v>
+        <v>426</v>
       </c>
     </row>
     <row r="164">
@@ -3383,7 +3383,7 @@
         </is>
       </c>
       <c r="D164" t="n">
-        <v>418</v>
+        <v>427</v>
       </c>
     </row>
     <row r="165">
@@ -3401,7 +3401,7 @@
         </is>
       </c>
       <c r="D165" t="n">
-        <v>418</v>
+        <v>427</v>
       </c>
     </row>
     <row r="166">
@@ -3419,7 +3419,7 @@
         </is>
       </c>
       <c r="D166" t="n">
-        <v>419</v>
+        <v>428</v>
       </c>
     </row>
     <row r="167">
@@ -3437,7 +3437,7 @@
         </is>
       </c>
       <c r="D167" t="n">
-        <v>419</v>
+        <v>428</v>
       </c>
     </row>
     <row r="168">
@@ -3455,7 +3455,7 @@
         </is>
       </c>
       <c r="D168" t="n">
-        <v>420</v>
+        <v>429</v>
       </c>
     </row>
     <row r="169">
@@ -3473,7 +3473,7 @@
         </is>
       </c>
       <c r="D169" t="n">
-        <v>420</v>
+        <v>429</v>
       </c>
     </row>
     <row r="170">
@@ -3491,7 +3491,7 @@
         </is>
       </c>
       <c r="D170" t="n">
-        <v>421</v>
+        <v>430</v>
       </c>
     </row>
     <row r="171">
@@ -3509,7 +3509,7 @@
         </is>
       </c>
       <c r="D171" t="n">
-        <v>421</v>
+        <v>430</v>
       </c>
     </row>
     <row r="172">
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D172" t="n">
-        <v>422</v>
+        <v>431</v>
       </c>
     </row>
     <row r="173">
@@ -3545,7 +3545,7 @@
         </is>
       </c>
       <c r="D173" t="n">
-        <v>422</v>
+        <v>431</v>
       </c>
     </row>
     <row r="174">
@@ -3554,16 +3554,16 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>유앤미</t>
+          <t>후니케이스</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>유앤미</t>
+          <t>후니케이스</t>
         </is>
       </c>
       <c r="D174" t="n">
-        <v>423</v>
+        <v>437</v>
       </c>
     </row>
     <row r="175">
@@ -3572,16 +3572,16 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>그린피앤에스</t>
+          <t>정확도</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>그린피앤에스</t>
+          <t>정확도</t>
         </is>
       </c>
       <c r="D175" t="n">
-        <v>423</v>
+        <v>452</v>
       </c>
     </row>
     <row r="176">
@@ -3590,16 +3590,16 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>유앤미</t>
+          <t>후니케이스</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>유앤미</t>
+          <t>후니케이스</t>
         </is>
       </c>
       <c r="D176" t="n">
-        <v>424</v>
+        <v>455</v>
       </c>
     </row>
     <row r="177">
@@ -3608,16 +3608,16 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>그린피앤에스</t>
+          <t>후니케이스</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>그린피앤에스</t>
+          <t>후니케이스</t>
         </is>
       </c>
       <c r="D177" t="n">
-        <v>424</v>
+        <v>456</v>
       </c>
     </row>
     <row r="178">
@@ -3626,16 +3626,16 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>유앤미</t>
+          <t>후니케이스</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>유앤미</t>
+          <t>후니케이스</t>
         </is>
       </c>
       <c r="D178" t="n">
-        <v>425</v>
+        <v>457</v>
       </c>
     </row>
     <row r="179">
@@ -3644,16 +3644,16 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>그린피앤에스</t>
+          <t>SNW</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>그린피앤에스</t>
+          <t>SNW</t>
         </is>
       </c>
       <c r="D179" t="n">
-        <v>425</v>
+        <v>458</v>
       </c>
     </row>
     <row r="180">
@@ -3662,16 +3662,16 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>유앤미</t>
+          <t>템플러</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>유앤미</t>
+          <t>템플러</t>
         </is>
       </c>
       <c r="D180" t="n">
-        <v>426</v>
+        <v>459</v>
       </c>
     </row>
     <row r="181">
@@ -3680,16 +3680,16 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>그린피앤에스</t>
+          <t>클리카</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>그린피앤에스</t>
+          <t>클리카</t>
         </is>
       </c>
       <c r="D181" t="n">
-        <v>426</v>
+        <v>460</v>
       </c>
     </row>
     <row r="182">
@@ -3698,16 +3698,16 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>유앤미</t>
+          <t>클리카</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>유앤미</t>
+          <t>클리카</t>
         </is>
       </c>
       <c r="D182" t="n">
-        <v>427</v>
+        <v>461</v>
       </c>
     </row>
     <row r="183">
@@ -3716,16 +3716,16 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>그린피앤에스</t>
+          <t>클리카</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>그린피앤에스</t>
+          <t>클리카</t>
         </is>
       </c>
       <c r="D183" t="n">
-        <v>427</v>
+        <v>462</v>
       </c>
     </row>
     <row r="184">
@@ -3734,16 +3734,16 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>유앤미</t>
+          <t>클리카</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>유앤미</t>
+          <t>클리카</t>
         </is>
       </c>
       <c r="D184" t="n">
-        <v>428</v>
+        <v>463</v>
       </c>
     </row>
     <row r="185">
@@ -3752,16 +3752,16 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>그린피앤에스</t>
+          <t>클리카</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>그린피앤에스</t>
+          <t>클리카</t>
         </is>
       </c>
       <c r="D185" t="n">
-        <v>428</v>
+        <v>464</v>
       </c>
     </row>
     <row r="186">
@@ -3770,16 +3770,16 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>유앤미</t>
+          <t>클리카</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>유앤미</t>
+          <t>클리카</t>
         </is>
       </c>
       <c r="D186" t="n">
-        <v>429</v>
+        <v>465</v>
       </c>
     </row>
     <row r="187">
@@ -3788,16 +3788,16 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>그린피앤에스</t>
+          <t>클리카</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>그린피앤에스</t>
+          <t>클리카</t>
         </is>
       </c>
       <c r="D187" t="n">
-        <v>429</v>
+        <v>466</v>
       </c>
     </row>
     <row r="188">
@@ -3806,16 +3806,16 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>유앤미</t>
+          <t>클리카</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>유앤미</t>
+          <t>클리카</t>
         </is>
       </c>
       <c r="D188" t="n">
-        <v>430</v>
+        <v>467</v>
       </c>
     </row>
     <row r="189">
@@ -3824,16 +3824,16 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>그린피앤에스</t>
+          <t>클리카</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>그린피앤에스</t>
+          <t>클리카</t>
         </is>
       </c>
       <c r="D189" t="n">
-        <v>430</v>
+        <v>468</v>
       </c>
     </row>
     <row r="190">
@@ -3842,16 +3842,16 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>유앤미</t>
+          <t>클리카</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>유앤미</t>
+          <t>클리카</t>
         </is>
       </c>
       <c r="D190" t="n">
-        <v>431</v>
+        <v>470</v>
       </c>
     </row>
     <row r="191">
@@ -3860,16 +3860,16 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>그린피앤에스</t>
+          <t>클리카</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>그린피앤에스</t>
+          <t>클리카</t>
         </is>
       </c>
       <c r="D191" t="n">
-        <v>431</v>
+        <v>474</v>
       </c>
     </row>
     <row r="192">
@@ -3878,16 +3878,16 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>후니케이스</t>
+          <t>클리카</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>후니케이스</t>
+          <t>클리카</t>
         </is>
       </c>
       <c r="D192" t="n">
-        <v>437</v>
+        <v>478</v>
       </c>
     </row>
     <row r="193">
@@ -3896,16 +3896,16 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>정확도</t>
+          <t>클리카</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>정확도</t>
+          <t>클리카</t>
         </is>
       </c>
       <c r="D193" t="n">
-        <v>452</v>
+        <v>479</v>
       </c>
     </row>
     <row r="194">
@@ -3914,16 +3914,16 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>후니케이스</t>
+          <t>에이브</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>후니케이스</t>
+          <t>에이브</t>
         </is>
       </c>
       <c r="D194" t="n">
-        <v>455</v>
+        <v>488</v>
       </c>
     </row>
     <row r="195">
@@ -3932,16 +3932,16 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>후니케이스</t>
+          <t>정확도</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>후니케이스</t>
+          <t>정확도</t>
         </is>
       </c>
       <c r="D195" t="n">
-        <v>456</v>
+        <v>494</v>
       </c>
     </row>
     <row r="196">
@@ -3950,339 +3950,15 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>후니케이스</t>
+          <t>템플러</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>후니케이스</t>
+          <t>템플러</t>
         </is>
       </c>
       <c r="D196" t="n">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="B197" t="inlineStr">
-        <is>
-          <t>SNW</t>
-        </is>
-      </c>
-      <c r="C197" t="inlineStr">
-        <is>
-          <t>SNW</t>
-        </is>
-      </c>
-      <c r="D197" t="n">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>196</v>
-      </c>
-      <c r="B198" t="inlineStr">
-        <is>
-          <t>템플러</t>
-        </is>
-      </c>
-      <c r="C198" t="inlineStr">
-        <is>
-          <t>템플러</t>
-        </is>
-      </c>
-      <c r="D198" t="n">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="B199" t="inlineStr">
-        <is>
-          <t>클리카</t>
-        </is>
-      </c>
-      <c r="C199" t="inlineStr">
-        <is>
-          <t>클리카</t>
-        </is>
-      </c>
-      <c r="D199" t="n">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
-        <v>198</v>
-      </c>
-      <c r="B200" t="inlineStr">
-        <is>
-          <t>클리카</t>
-        </is>
-      </c>
-      <c r="C200" t="inlineStr">
-        <is>
-          <t>클리카</t>
-        </is>
-      </c>
-      <c r="D200" t="n">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
-        <v>199</v>
-      </c>
-      <c r="B201" t="inlineStr">
-        <is>
-          <t>클리카</t>
-        </is>
-      </c>
-      <c r="C201" t="inlineStr">
-        <is>
-          <t>클리카</t>
-        </is>
-      </c>
-      <c r="D201" t="n">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="B202" t="inlineStr">
-        <is>
-          <t>클리카</t>
-        </is>
-      </c>
-      <c r="C202" t="inlineStr">
-        <is>
-          <t>클리카</t>
-        </is>
-      </c>
-      <c r="D202" t="n">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" s="1" t="n">
-        <v>201</v>
-      </c>
-      <c r="B203" t="inlineStr">
-        <is>
-          <t>클리카</t>
-        </is>
-      </c>
-      <c r="C203" t="inlineStr">
-        <is>
-          <t>클리카</t>
-        </is>
-      </c>
-      <c r="D203" t="n">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" s="1" t="n">
-        <v>202</v>
-      </c>
-      <c r="B204" t="inlineStr">
-        <is>
-          <t>클리카</t>
-        </is>
-      </c>
-      <c r="C204" t="inlineStr">
-        <is>
-          <t>클리카</t>
-        </is>
-      </c>
-      <c r="D204" t="n">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" s="1" t="n">
-        <v>203</v>
-      </c>
-      <c r="B205" t="inlineStr">
-        <is>
-          <t>클리카</t>
-        </is>
-      </c>
-      <c r="C205" t="inlineStr">
-        <is>
-          <t>클리카</t>
-        </is>
-      </c>
-      <c r="D205" t="n">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" s="1" t="n">
-        <v>204</v>
-      </c>
-      <c r="B206" t="inlineStr">
-        <is>
-          <t>클리카</t>
-        </is>
-      </c>
-      <c r="C206" t="inlineStr">
-        <is>
-          <t>클리카</t>
-        </is>
-      </c>
-      <c r="D206" t="n">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" s="1" t="n">
-        <v>205</v>
-      </c>
-      <c r="B207" t="inlineStr">
-        <is>
-          <t>클리카</t>
-        </is>
-      </c>
-      <c r="C207" t="inlineStr">
-        <is>
-          <t>클리카</t>
-        </is>
-      </c>
-      <c r="D207" t="n">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" s="1" t="n">
-        <v>206</v>
-      </c>
-      <c r="B208" t="inlineStr">
-        <is>
-          <t>클리카</t>
-        </is>
-      </c>
-      <c r="C208" t="inlineStr">
-        <is>
-          <t>클리카</t>
-        </is>
-      </c>
-      <c r="D208" t="n">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" s="1" t="n">
-        <v>207</v>
-      </c>
-      <c r="B209" t="inlineStr">
-        <is>
-          <t>클리카</t>
-        </is>
-      </c>
-      <c r="C209" t="inlineStr">
-        <is>
-          <t>클리카</t>
-        </is>
-      </c>
-      <c r="D209" t="n">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" s="1" t="n">
-        <v>208</v>
-      </c>
-      <c r="B210" t="inlineStr">
-        <is>
-          <t>클리카</t>
-        </is>
-      </c>
-      <c r="C210" t="inlineStr">
-        <is>
-          <t>클리카</t>
-        </is>
-      </c>
-      <c r="D210" t="n">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" s="1" t="n">
-        <v>209</v>
-      </c>
-      <c r="B211" t="inlineStr">
-        <is>
-          <t>클리카</t>
-        </is>
-      </c>
-      <c r="C211" t="inlineStr">
-        <is>
-          <t>클리카</t>
-        </is>
-      </c>
-      <c r="D211" t="n">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" s="1" t="n">
-        <v>210</v>
-      </c>
-      <c r="B212" t="inlineStr">
-        <is>
-          <t>에이브</t>
-        </is>
-      </c>
-      <c r="C212" t="inlineStr">
-        <is>
-          <t>에이브</t>
-        </is>
-      </c>
-      <c r="D212" t="n">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" s="1" t="n">
-        <v>211</v>
-      </c>
-      <c r="B213" t="inlineStr">
-        <is>
-          <t>정확도</t>
-        </is>
-      </c>
-      <c r="C213" t="inlineStr">
-        <is>
-          <t>정확도</t>
-        </is>
-      </c>
-      <c r="D213" t="n">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" s="1" t="n">
-        <v>212</v>
-      </c>
-      <c r="B214" t="inlineStr">
-        <is>
-          <t>템플러</t>
-        </is>
-      </c>
-      <c r="C214" t="inlineStr">
-        <is>
-          <t>템플러</t>
-        </is>
-      </c>
-      <c r="D214" t="n">
         <v>498</v>
       </c>
     </row>

--- a/resources/del_logs.xlsx
+++ b/resources/del_logs.xlsx
@@ -494,12 +494,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>아이윙스</t>
+          <t>피포페인팅</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>아이윙스</t>
+          <t>피포페인팅</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -512,12 +512,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>피포페인팅</t>
+          <t>아이윙스</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>피포페인팅</t>
+          <t>아이윙스</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -530,12 +530,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>아이윙스</t>
+          <t>피포페인팅</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>아이윙스</t>
+          <t>피포페인팅</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -548,12 +548,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>피포페인팅</t>
+          <t>아이윙스</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>피포페인팅</t>
+          <t>아이윙스</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -566,12 +566,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>아이윙스</t>
+          <t>피포페인팅</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>아이윙스</t>
+          <t>피포페인팅</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -584,12 +584,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>피포페인팅</t>
+          <t>아이윙스</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>피포페인팅</t>
+          <t>아이윙스</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -674,12 +674,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>아이윙스</t>
+          <t>피포페인팅</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>아이윙스</t>
+          <t>피포페인팅</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -692,12 +692,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>피포페인팅</t>
+          <t>아이윙스</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>피포페인팅</t>
+          <t>아이윙스</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -710,12 +710,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>아이윙스</t>
+          <t>피포페인팅</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>아이윙스</t>
+          <t>피포페인팅</t>
         </is>
       </c>
       <c r="D16" t="n">
@@ -728,12 +728,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>피포페인팅</t>
+          <t>아이윙스</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>피포페인팅</t>
+          <t>아이윙스</t>
         </is>
       </c>
       <c r="D17" t="n">
@@ -1592,12 +1592,12 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>아이윙스</t>
+          <t>피포페인팅</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>아이윙스</t>
+          <t>피포페인팅</t>
         </is>
       </c>
       <c r="D65" t="n">
@@ -1610,12 +1610,12 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>피포페인팅</t>
+          <t>아이윙스</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>피포페인팅</t>
+          <t>아이윙스</t>
         </is>
       </c>
       <c r="D66" t="n">
@@ -1808,12 +1808,12 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>아이윙스</t>
+          <t>피포페인팅</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>아이윙스</t>
+          <t>피포페인팅</t>
         </is>
       </c>
       <c r="D77" t="n">
@@ -1826,12 +1826,12 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>피포페인팅</t>
+          <t>아이윙스</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>피포페인팅</t>
+          <t>아이윙스</t>
         </is>
       </c>
       <c r="D78" t="n">
@@ -2438,12 +2438,12 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>아이윙스</t>
+          <t>피포페인팅</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>아이윙스</t>
+          <t>피포페인팅</t>
         </is>
       </c>
       <c r="D112" t="n">
@@ -2456,12 +2456,12 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>피포페인팅</t>
+          <t>아이윙스</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>피포페인팅</t>
+          <t>아이윙스</t>
         </is>
       </c>
       <c r="D113" t="n">
@@ -2492,12 +2492,12 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>유앤미</t>
+          <t>그린피앤에스</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>유앤미</t>
+          <t>그린피앤에스</t>
         </is>
       </c>
       <c r="D115" t="n">
@@ -2510,12 +2510,12 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>그린피앤에스</t>
+          <t>유앤미</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>그린피앤에스</t>
+          <t>유앤미</t>
         </is>
       </c>
       <c r="D116" t="n">
@@ -2528,12 +2528,12 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>유앤미</t>
+          <t>그린피앤에스</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>유앤미</t>
+          <t>그린피앤에스</t>
         </is>
       </c>
       <c r="D117" t="n">
@@ -2546,12 +2546,12 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>그린피앤에스</t>
+          <t>유앤미</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>그린피앤에스</t>
+          <t>유앤미</t>
         </is>
       </c>
       <c r="D118" t="n">
@@ -2564,12 +2564,12 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>유앤미</t>
+          <t>그린피앤에스</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>유앤미</t>
+          <t>그린피앤에스</t>
         </is>
       </c>
       <c r="D119" t="n">
@@ -2582,12 +2582,12 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>그린피앤에스</t>
+          <t>유앤미</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>그린피앤에스</t>
+          <t>유앤미</t>
         </is>
       </c>
       <c r="D120" t="n">
@@ -2600,12 +2600,12 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>유앤미</t>
+          <t>그린피앤에스</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>유앤미</t>
+          <t>그린피앤에스</t>
         </is>
       </c>
       <c r="D121" t="n">
@@ -2618,12 +2618,12 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>그린피앤에스</t>
+          <t>유앤미</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>그린피앤에스</t>
+          <t>유앤미</t>
         </is>
       </c>
       <c r="D122" t="n">
@@ -2636,12 +2636,12 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>유앤미</t>
+          <t>그린피앤에스</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>유앤미</t>
+          <t>그린피앤에스</t>
         </is>
       </c>
       <c r="D123" t="n">
@@ -2654,12 +2654,12 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>그린피앤에스</t>
+          <t>유앤미</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>그린피앤에스</t>
+          <t>유앤미</t>
         </is>
       </c>
       <c r="D124" t="n">
@@ -2672,12 +2672,12 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>유앤미</t>
+          <t>그린피앤에스</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>유앤미</t>
+          <t>그린피앤에스</t>
         </is>
       </c>
       <c r="D125" t="n">
@@ -2690,12 +2690,12 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>그린피앤에스</t>
+          <t>유앤미</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>그린피앤에스</t>
+          <t>유앤미</t>
         </is>
       </c>
       <c r="D126" t="n">
@@ -2708,12 +2708,12 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>유앤미</t>
+          <t>그린피앤에스</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>유앤미</t>
+          <t>그린피앤에스</t>
         </is>
       </c>
       <c r="D127" t="n">
@@ -2726,12 +2726,12 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>그린피앤에스</t>
+          <t>유앤미</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>그린피앤에스</t>
+          <t>유앤미</t>
         </is>
       </c>
       <c r="D128" t="n">
@@ -2744,12 +2744,12 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>유앤미</t>
+          <t>그린피앤에스</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>유앤미</t>
+          <t>그린피앤에스</t>
         </is>
       </c>
       <c r="D129" t="n">
@@ -2762,12 +2762,12 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>그린피앤에스</t>
+          <t>유앤미</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>그린피앤에스</t>
+          <t>유앤미</t>
         </is>
       </c>
       <c r="D130" t="n">
@@ -2780,12 +2780,12 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>유앤미</t>
+          <t>그린피앤에스</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>유앤미</t>
+          <t>그린피앤에스</t>
         </is>
       </c>
       <c r="D131" t="n">
@@ -2798,12 +2798,12 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>그린피앤에스</t>
+          <t>유앤미</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>그린피앤에스</t>
+          <t>유앤미</t>
         </is>
       </c>
       <c r="D132" t="n">
@@ -2816,12 +2816,12 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>유앤미</t>
+          <t>그린피앤에스</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>유앤미</t>
+          <t>그린피앤에스</t>
         </is>
       </c>
       <c r="D133" t="n">
@@ -2834,12 +2834,12 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>그린피앤에스</t>
+          <t>유앤미</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>그린피앤에스</t>
+          <t>유앤미</t>
         </is>
       </c>
       <c r="D134" t="n">
@@ -2852,12 +2852,12 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>유앤미</t>
+          <t>그린피앤에스</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>유앤미</t>
+          <t>그린피앤에스</t>
         </is>
       </c>
       <c r="D135" t="n">
@@ -2870,12 +2870,12 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>그린피앤에스</t>
+          <t>유앤미</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>그린피앤에스</t>
+          <t>유앤미</t>
         </is>
       </c>
       <c r="D136" t="n">
@@ -2888,12 +2888,12 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>유앤미</t>
+          <t>그린피앤에스</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>유앤미</t>
+          <t>그린피앤에스</t>
         </is>
       </c>
       <c r="D137" t="n">
@@ -2906,12 +2906,12 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>그린피앤에스</t>
+          <t>유앤미</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>그린피앤에스</t>
+          <t>유앤미</t>
         </is>
       </c>
       <c r="D138" t="n">
@@ -2924,12 +2924,12 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>유앤미</t>
+          <t>그린피앤에스</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>유앤미</t>
+          <t>그린피앤에스</t>
         </is>
       </c>
       <c r="D139" t="n">
@@ -2942,12 +2942,12 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>그린피앤에스</t>
+          <t>유앤미</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>그린피앤에스</t>
+          <t>유앤미</t>
         </is>
       </c>
       <c r="D140" t="n">
@@ -2960,12 +2960,12 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>유앤미</t>
+          <t>그린피앤에스</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>유앤미</t>
+          <t>그린피앤에스</t>
         </is>
       </c>
       <c r="D141" t="n">
@@ -2978,12 +2978,12 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>그린피앤에스</t>
+          <t>유앤미</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>그린피앤에스</t>
+          <t>유앤미</t>
         </is>
       </c>
       <c r="D142" t="n">
@@ -2996,12 +2996,12 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>유앤미</t>
+          <t>그린피앤에스</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>유앤미</t>
+          <t>그린피앤에스</t>
         </is>
       </c>
       <c r="D143" t="n">
@@ -3014,12 +3014,12 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>그린피앤에스</t>
+          <t>유앤미</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>그린피앤에스</t>
+          <t>유앤미</t>
         </is>
       </c>
       <c r="D144" t="n">
@@ -3032,12 +3032,12 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>유앤미</t>
+          <t>그린피앤에스</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>유앤미</t>
+          <t>그린피앤에스</t>
         </is>
       </c>
       <c r="D145" t="n">
@@ -3050,12 +3050,12 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>그린피앤에스</t>
+          <t>유앤미</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>그린피앤에스</t>
+          <t>유앤미</t>
         </is>
       </c>
       <c r="D146" t="n">
@@ -3068,12 +3068,12 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>유앤미</t>
+          <t>그린피앤에스</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>유앤미</t>
+          <t>그린피앤에스</t>
         </is>
       </c>
       <c r="D147" t="n">
@@ -3086,12 +3086,12 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>그린피앤에스</t>
+          <t>유앤미</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>그린피앤에스</t>
+          <t>유앤미</t>
         </is>
       </c>
       <c r="D148" t="n">
@@ -3104,12 +3104,12 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>유앤미</t>
+          <t>그린피앤에스</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>유앤미</t>
+          <t>그린피앤에스</t>
         </is>
       </c>
       <c r="D149" t="n">
@@ -3122,12 +3122,12 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>그린피앤에스</t>
+          <t>유앤미</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>그린피앤에스</t>
+          <t>유앤미</t>
         </is>
       </c>
       <c r="D150" t="n">
@@ -3140,12 +3140,12 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>유앤미</t>
+          <t>그린피앤에스</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>유앤미</t>
+          <t>그린피앤에스</t>
         </is>
       </c>
       <c r="D151" t="n">
@@ -3158,12 +3158,12 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>그린피앤에스</t>
+          <t>유앤미</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>그린피앤에스</t>
+          <t>유앤미</t>
         </is>
       </c>
       <c r="D152" t="n">
@@ -3176,12 +3176,12 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>유앤미</t>
+          <t>그린피앤에스</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>유앤미</t>
+          <t>그린피앤에스</t>
         </is>
       </c>
       <c r="D153" t="n">
@@ -3194,12 +3194,12 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>그린피앤에스</t>
+          <t>유앤미</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>그린피앤에스</t>
+          <t>유앤미</t>
         </is>
       </c>
       <c r="D154" t="n">
@@ -3212,12 +3212,12 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>유앤미</t>
+          <t>그린피앤에스</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>유앤미</t>
+          <t>그린피앤에스</t>
         </is>
       </c>
       <c r="D155" t="n">
@@ -3230,12 +3230,12 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>그린피앤에스</t>
+          <t>유앤미</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>그린피앤에스</t>
+          <t>유앤미</t>
         </is>
       </c>
       <c r="D156" t="n">
@@ -3248,12 +3248,12 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>유앤미</t>
+          <t>그린피앤에스</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>유앤미</t>
+          <t>그린피앤에스</t>
         </is>
       </c>
       <c r="D157" t="n">
@@ -3266,12 +3266,12 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>그린피앤에스</t>
+          <t>유앤미</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>그린피앤에스</t>
+          <t>유앤미</t>
         </is>
       </c>
       <c r="D158" t="n">
@@ -3284,12 +3284,12 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>유앤미</t>
+          <t>그린피앤에스</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>유앤미</t>
+          <t>그린피앤에스</t>
         </is>
       </c>
       <c r="D159" t="n">
@@ -3302,12 +3302,12 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>그린피앤에스</t>
+          <t>유앤미</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>그린피앤에스</t>
+          <t>유앤미</t>
         </is>
       </c>
       <c r="D160" t="n">
@@ -3320,12 +3320,12 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>유앤미</t>
+          <t>그린피앤에스</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>유앤미</t>
+          <t>그린피앤에스</t>
         </is>
       </c>
       <c r="D161" t="n">
@@ -3338,12 +3338,12 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>그린피앤에스</t>
+          <t>유앤미</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>그린피앤에스</t>
+          <t>유앤미</t>
         </is>
       </c>
       <c r="D162" t="n">
@@ -3356,12 +3356,12 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>유앤미</t>
+          <t>그린피앤에스</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>유앤미</t>
+          <t>그린피앤에스</t>
         </is>
       </c>
       <c r="D163" t="n">
@@ -3374,12 +3374,12 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>그린피앤에스</t>
+          <t>유앤미</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>그린피앤에스</t>
+          <t>유앤미</t>
         </is>
       </c>
       <c r="D164" t="n">
@@ -3392,12 +3392,12 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>유앤미</t>
+          <t>그린피앤에스</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>유앤미</t>
+          <t>그린피앤에스</t>
         </is>
       </c>
       <c r="D165" t="n">
@@ -3410,12 +3410,12 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>그린피앤에스</t>
+          <t>유앤미</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>그린피앤에스</t>
+          <t>유앤미</t>
         </is>
       </c>
       <c r="D166" t="n">
@@ -3428,12 +3428,12 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>유앤미</t>
+          <t>그린피앤에스</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>유앤미</t>
+          <t>그린피앤에스</t>
         </is>
       </c>
       <c r="D167" t="n">
@@ -3446,12 +3446,12 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>그린피앤에스</t>
+          <t>유앤미</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>그린피앤에스</t>
+          <t>유앤미</t>
         </is>
       </c>
       <c r="D168" t="n">

--- a/resources/del_logs.xlsx
+++ b/resources/del_logs.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D190"/>
+  <dimension ref="A1:D197"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -494,12 +494,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>피포페인팅</t>
+          <t>아이윙스</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>피포페인팅</t>
+          <t>아이윙스</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -512,12 +512,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>아이윙스</t>
+          <t>피포페인팅</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>아이윙스</t>
+          <t>피포페인팅</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -530,12 +530,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>피포페인팅</t>
+          <t>아이윙스</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>피포페인팅</t>
+          <t>아이윙스</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -548,12 +548,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>아이윙스</t>
+          <t>피포페인팅</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>아이윙스</t>
+          <t>피포페인팅</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -566,12 +566,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>피포페인팅</t>
+          <t>아이윙스</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>피포페인팅</t>
+          <t>아이윙스</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -584,12 +584,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>아이윙스</t>
+          <t>피포페인팅</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>아이윙스</t>
+          <t>피포페인팅</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -674,12 +674,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>피포페인팅</t>
+          <t>아이윙스</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>피포페인팅</t>
+          <t>아이윙스</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -692,12 +692,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>아이윙스</t>
+          <t>피포페인팅</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>아이윙스</t>
+          <t>피포페인팅</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -710,12 +710,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>피포페인팅</t>
+          <t>아이윙스</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>피포페인팅</t>
+          <t>아이윙스</t>
         </is>
       </c>
       <c r="D16" t="n">
@@ -728,12 +728,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>아이윙스</t>
+          <t>피포페인팅</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>아이윙스</t>
+          <t>피포페인팅</t>
         </is>
       </c>
       <c r="D17" t="n">
@@ -1592,12 +1592,12 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>피포페인팅</t>
+          <t>아이윙스</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>피포페인팅</t>
+          <t>아이윙스</t>
         </is>
       </c>
       <c r="D65" t="n">
@@ -1610,12 +1610,12 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>아이윙스</t>
+          <t>피포페인팅</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>아이윙스</t>
+          <t>피포페인팅</t>
         </is>
       </c>
       <c r="D66" t="n">
@@ -1808,12 +1808,12 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>피포페인팅</t>
+          <t>아이윙스</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>피포페인팅</t>
+          <t>아이윙스</t>
         </is>
       </c>
       <c r="D77" t="n">
@@ -1826,12 +1826,12 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>아이윙스</t>
+          <t>피포페인팅</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>아이윙스</t>
+          <t>피포페인팅</t>
         </is>
       </c>
       <c r="D78" t="n">
@@ -2294,16 +2294,16 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>후니케이스</t>
+          <t>액티몬</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>후니케이스</t>
+          <t>액티몬</t>
         </is>
       </c>
       <c r="D104" t="n">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="105">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="106">
@@ -2330,16 +2330,16 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>후니케이스</t>
+          <t>액티몬</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>후니케이스</t>
+          <t>액티몬</t>
         </is>
       </c>
       <c r="D106" t="n">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="107">
@@ -2348,16 +2348,16 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>정확도</t>
+          <t>후니케이스</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>정확도</t>
+          <t>후니케이스</t>
         </is>
       </c>
       <c r="D107" t="n">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="108">
@@ -2366,16 +2366,16 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>정확도</t>
+          <t>액티몬</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>정확도</t>
+          <t>액티몬</t>
         </is>
       </c>
       <c r="D108" t="n">
-        <v>339</v>
+        <v>333</v>
       </c>
     </row>
     <row r="109">
@@ -2384,16 +2384,16 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>베이비캠프</t>
+          <t>후니케이스</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>베이비캠프</t>
+          <t>후니케이스</t>
         </is>
       </c>
       <c r="D109" t="n">
-        <v>361</v>
+        <v>334</v>
       </c>
     </row>
     <row r="110">
@@ -2402,16 +2402,16 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>정확도</t>
+          <t>액티몬</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>정확도</t>
+          <t>액티몬</t>
         </is>
       </c>
       <c r="D110" t="n">
-        <v>363</v>
+        <v>334</v>
       </c>
     </row>
     <row r="111">
@@ -2420,16 +2420,16 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>다번다</t>
+          <t>정확도</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>다번다</t>
+          <t>정확도</t>
         </is>
       </c>
       <c r="D111" t="n">
-        <v>364</v>
+        <v>335</v>
       </c>
     </row>
     <row r="112">
@@ -2438,16 +2438,16 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>피포페인팅</t>
+          <t>정확도</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>피포페인팅</t>
+          <t>정확도</t>
         </is>
       </c>
       <c r="D112" t="n">
-        <v>367</v>
+        <v>339</v>
       </c>
     </row>
     <row r="113">
@@ -2456,16 +2456,16 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>아이윙스</t>
+          <t>베이비캠프</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>아이윙스</t>
+          <t>베이비캠프</t>
         </is>
       </c>
       <c r="D113" t="n">
-        <v>367</v>
+        <v>361</v>
       </c>
     </row>
     <row r="114">
@@ -2474,16 +2474,16 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>가디언블루</t>
+          <t>정확도</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>가디언블루</t>
+          <t>정확도</t>
         </is>
       </c>
       <c r="D114" t="n">
-        <v>387</v>
+        <v>363</v>
       </c>
     </row>
     <row r="115">
@@ -2492,16 +2492,16 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>그린피앤에스</t>
+          <t>다번다</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>그린피앤에스</t>
+          <t>다번다</t>
         </is>
       </c>
       <c r="D115" t="n">
-        <v>389</v>
+        <v>364</v>
       </c>
     </row>
     <row r="116">
@@ -2510,16 +2510,16 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>유앤미</t>
+          <t>아이윙스</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>유앤미</t>
+          <t>아이윙스</t>
         </is>
       </c>
       <c r="D116" t="n">
-        <v>389</v>
+        <v>367</v>
       </c>
     </row>
     <row r="117">
@@ -2528,16 +2528,16 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>그린피앤에스</t>
+          <t>피포페인팅</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>그린피앤에스</t>
+          <t>피포페인팅</t>
         </is>
       </c>
       <c r="D117" t="n">
-        <v>390</v>
+        <v>367</v>
       </c>
     </row>
     <row r="118">
@@ -2546,16 +2546,16 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>유앤미</t>
+          <t>가디언블루</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>유앤미</t>
+          <t>가디언블루</t>
         </is>
       </c>
       <c r="D118" t="n">
-        <v>390</v>
+        <v>387</v>
       </c>
     </row>
     <row r="119">
@@ -2564,16 +2564,16 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>그린피앤에스</t>
+          <t>유앤미</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>그린피앤에스</t>
+          <t>유앤미</t>
         </is>
       </c>
       <c r="D119" t="n">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="120">
@@ -2582,16 +2582,16 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>유앤미</t>
+          <t>그린피앤에스</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>유앤미</t>
+          <t>그린피앤에스</t>
         </is>
       </c>
       <c r="D120" t="n">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="121">
@@ -2600,16 +2600,16 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>그린피앤에스</t>
+          <t>유앤미</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>그린피앤에스</t>
+          <t>유앤미</t>
         </is>
       </c>
       <c r="D121" t="n">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="122">
@@ -2618,16 +2618,16 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>유앤미</t>
+          <t>그린피앤에스</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>유앤미</t>
+          <t>그린피앤에스</t>
         </is>
       </c>
       <c r="D122" t="n">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="123">
@@ -2636,16 +2636,16 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>그린피앤에스</t>
+          <t>유앤미</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>그린피앤에스</t>
+          <t>유앤미</t>
         </is>
       </c>
       <c r="D123" t="n">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="124">
@@ -2654,16 +2654,16 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>유앤미</t>
+          <t>그린피앤에스</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>유앤미</t>
+          <t>그린피앤에스</t>
         </is>
       </c>
       <c r="D124" t="n">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="125">
@@ -2672,16 +2672,16 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>그린피앤에스</t>
+          <t>유앤미</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>그린피앤에스</t>
+          <t>유앤미</t>
         </is>
       </c>
       <c r="D125" t="n">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="126">
@@ -2690,16 +2690,16 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>유앤미</t>
+          <t>그린피앤에스</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>유앤미</t>
+          <t>그린피앤에스</t>
         </is>
       </c>
       <c r="D126" t="n">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="127">
@@ -2708,16 +2708,16 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>그린피앤에스</t>
+          <t>유앤미</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>그린피앤에스</t>
+          <t>유앤미</t>
         </is>
       </c>
       <c r="D127" t="n">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="128">
@@ -2726,16 +2726,16 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>유앤미</t>
+          <t>그린피앤에스</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>유앤미</t>
+          <t>그린피앤에스</t>
         </is>
       </c>
       <c r="D128" t="n">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="129">
@@ -2744,16 +2744,16 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>그린피앤에스</t>
+          <t>유앤미</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>그린피앤에스</t>
+          <t>유앤미</t>
         </is>
       </c>
       <c r="D129" t="n">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="130">
@@ -2762,16 +2762,16 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>유앤미</t>
+          <t>그린피앤에스</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>유앤미</t>
+          <t>그린피앤에스</t>
         </is>
       </c>
       <c r="D130" t="n">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="131">
@@ -2780,16 +2780,16 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>그린피앤에스</t>
+          <t>유앤미</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>그린피앤에스</t>
+          <t>유앤미</t>
         </is>
       </c>
       <c r="D131" t="n">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="132">
@@ -2798,16 +2798,16 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>유앤미</t>
+          <t>그린피앤에스</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>유앤미</t>
+          <t>그린피앤에스</t>
         </is>
       </c>
       <c r="D132" t="n">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="133">
@@ -2816,16 +2816,16 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>그린피앤에스</t>
+          <t>유앤미</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>그린피앤에스</t>
+          <t>유앤미</t>
         </is>
       </c>
       <c r="D133" t="n">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="134">
@@ -2834,16 +2834,16 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>유앤미</t>
+          <t>그린피앤에스</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>유앤미</t>
+          <t>그린피앤에스</t>
         </is>
       </c>
       <c r="D134" t="n">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="135">
@@ -2852,16 +2852,16 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>그린피앤에스</t>
+          <t>유앤미</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>그린피앤에스</t>
+          <t>유앤미</t>
         </is>
       </c>
       <c r="D135" t="n">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="136">
@@ -2870,16 +2870,16 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>유앤미</t>
+          <t>그린피앤에스</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>유앤미</t>
+          <t>그린피앤에스</t>
         </is>
       </c>
       <c r="D136" t="n">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="137">
@@ -2888,16 +2888,16 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>그린피앤에스</t>
+          <t>유앤미</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>그린피앤에스</t>
+          <t>유앤미</t>
         </is>
       </c>
       <c r="D137" t="n">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="138">
@@ -2906,16 +2906,16 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>유앤미</t>
+          <t>그린피앤에스</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>유앤미</t>
+          <t>그린피앤에스</t>
         </is>
       </c>
       <c r="D138" t="n">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="139">
@@ -2924,16 +2924,16 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>그린피앤에스</t>
+          <t>유앤미</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>그린피앤에스</t>
+          <t>유앤미</t>
         </is>
       </c>
       <c r="D139" t="n">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="140">
@@ -2942,16 +2942,16 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>유앤미</t>
+          <t>그린피앤에스</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>유앤미</t>
+          <t>그린피앤에스</t>
         </is>
       </c>
       <c r="D140" t="n">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="141">
@@ -2960,16 +2960,16 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>그린피앤에스</t>
+          <t>유앤미</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>그린피앤에스</t>
+          <t>유앤미</t>
         </is>
       </c>
       <c r="D141" t="n">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="142">
@@ -2978,16 +2978,16 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>유앤미</t>
+          <t>그린피앤에스</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>유앤미</t>
+          <t>그린피앤에스</t>
         </is>
       </c>
       <c r="D142" t="n">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="143">
@@ -2996,16 +2996,16 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>그린피앤에스</t>
+          <t>유앤미</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>그린피앤에스</t>
+          <t>유앤미</t>
         </is>
       </c>
       <c r="D143" t="n">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="144">
@@ -3014,16 +3014,16 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>유앤미</t>
+          <t>그린피앤에스</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>유앤미</t>
+          <t>그린피앤에스</t>
         </is>
       </c>
       <c r="D144" t="n">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="145">
@@ -3032,16 +3032,16 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>그린피앤에스</t>
+          <t>유앤미</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>그린피앤에스</t>
+          <t>유앤미</t>
         </is>
       </c>
       <c r="D145" t="n">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="146">
@@ -3050,16 +3050,16 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>유앤미</t>
+          <t>그린피앤에스</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>유앤미</t>
+          <t>그린피앤에스</t>
         </is>
       </c>
       <c r="D146" t="n">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="147">
@@ -3068,16 +3068,16 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>그린피앤에스</t>
+          <t>유앤미</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>그린피앤에스</t>
+          <t>유앤미</t>
         </is>
       </c>
       <c r="D147" t="n">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="148">
@@ -3086,16 +3086,16 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>유앤미</t>
+          <t>그린피앤에스</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>유앤미</t>
+          <t>그린피앤에스</t>
         </is>
       </c>
       <c r="D148" t="n">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="149">
@@ -3104,16 +3104,16 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>그린피앤에스</t>
+          <t>유앤미</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>그린피앤에스</t>
+          <t>유앤미</t>
         </is>
       </c>
       <c r="D149" t="n">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="150">
@@ -3122,16 +3122,16 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>유앤미</t>
+          <t>그린피앤에스</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>유앤미</t>
+          <t>그린피앤에스</t>
         </is>
       </c>
       <c r="D150" t="n">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="151">
@@ -3140,16 +3140,16 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>그린피앤에스</t>
+          <t>유앤미</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>그린피앤에스</t>
+          <t>유앤미</t>
         </is>
       </c>
       <c r="D151" t="n">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="152">
@@ -3158,16 +3158,16 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>유앤미</t>
+          <t>그린피앤에스</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>유앤미</t>
+          <t>그린피앤에스</t>
         </is>
       </c>
       <c r="D152" t="n">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="153">
@@ -3176,16 +3176,16 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>그린피앤에스</t>
+          <t>유앤미</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>그린피앤에스</t>
+          <t>유앤미</t>
         </is>
       </c>
       <c r="D153" t="n">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="154">
@@ -3194,16 +3194,16 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>유앤미</t>
+          <t>그린피앤에스</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>유앤미</t>
+          <t>그린피앤에스</t>
         </is>
       </c>
       <c r="D154" t="n">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="155">
@@ -3212,16 +3212,16 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>그린피앤에스</t>
+          <t>유앤미</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>그린피앤에스</t>
+          <t>유앤미</t>
         </is>
       </c>
       <c r="D155" t="n">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="156">
@@ -3230,16 +3230,16 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>유앤미</t>
+          <t>그린피앤에스</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>유앤미</t>
+          <t>그린피앤에스</t>
         </is>
       </c>
       <c r="D156" t="n">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="157">
@@ -3248,16 +3248,16 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>그린피앤에스</t>
+          <t>유앤미</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>그린피앤에스</t>
+          <t>유앤미</t>
         </is>
       </c>
       <c r="D157" t="n">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="158">
@@ -3266,16 +3266,16 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>유앤미</t>
+          <t>그린피앤에스</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>유앤미</t>
+          <t>그린피앤에스</t>
         </is>
       </c>
       <c r="D158" t="n">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="159">
@@ -3284,16 +3284,16 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>그린피앤에스</t>
+          <t>유앤미</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>그린피앤에스</t>
+          <t>유앤미</t>
         </is>
       </c>
       <c r="D159" t="n">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="160">
@@ -3302,16 +3302,16 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>유앤미</t>
+          <t>그린피앤에스</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>유앤미</t>
+          <t>그린피앤에스</t>
         </is>
       </c>
       <c r="D160" t="n">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="161">
@@ -3320,16 +3320,16 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>그린피앤에스</t>
+          <t>유앤미</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>그린피앤에스</t>
+          <t>유앤미</t>
         </is>
       </c>
       <c r="D161" t="n">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="162">
@@ -3338,16 +3338,16 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>유앤미</t>
+          <t>그린피앤에스</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>유앤미</t>
+          <t>그린피앤에스</t>
         </is>
       </c>
       <c r="D162" t="n">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="163">
@@ -3356,16 +3356,16 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>그린피앤에스</t>
+          <t>유앤미</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>그린피앤에스</t>
+          <t>유앤미</t>
         </is>
       </c>
       <c r="D163" t="n">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="164">
@@ -3374,16 +3374,16 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>유앤미</t>
+          <t>그린피앤에스</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>유앤미</t>
+          <t>그린피앤에스</t>
         </is>
       </c>
       <c r="D164" t="n">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="165">
@@ -3392,16 +3392,16 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>그린피앤에스</t>
+          <t>유앤미</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>그린피앤에스</t>
+          <t>유앤미</t>
         </is>
       </c>
       <c r="D165" t="n">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="166">
@@ -3410,16 +3410,16 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>유앤미</t>
+          <t>그린피앤에스</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>유앤미</t>
+          <t>그린피앤에스</t>
         </is>
       </c>
       <c r="D166" t="n">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="167">
@@ -3428,16 +3428,16 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>그린피앤에스</t>
+          <t>유앤미</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>그린피앤에스</t>
+          <t>유앤미</t>
         </is>
       </c>
       <c r="D167" t="n">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="168">
@@ -3446,16 +3446,16 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>유앤미</t>
+          <t>그린피앤에스</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>유앤미</t>
+          <t>그린피앤에스</t>
         </is>
       </c>
       <c r="D168" t="n">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="169">
@@ -3464,16 +3464,16 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>후니케이스</t>
+          <t>유앤미</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>후니케이스</t>
+          <t>유앤미</t>
         </is>
       </c>
       <c r="D169" t="n">
-        <v>420</v>
+        <v>414</v>
       </c>
     </row>
     <row r="170">
@@ -3482,16 +3482,16 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>정확도</t>
+          <t>그린피앤에스</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>정확도</t>
+          <t>그린피앤에스</t>
         </is>
       </c>
       <c r="D170" t="n">
-        <v>435</v>
+        <v>414</v>
       </c>
     </row>
     <row r="171">
@@ -3500,16 +3500,16 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>후니케이스</t>
+          <t>유앤미</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>후니케이스</t>
+          <t>유앤미</t>
         </is>
       </c>
       <c r="D171" t="n">
-        <v>438</v>
+        <v>415</v>
       </c>
     </row>
     <row r="172">
@@ -3518,16 +3518,16 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>후니케이스</t>
+          <t>그린피앤에스</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>후니케이스</t>
+          <t>그린피앤에스</t>
         </is>
       </c>
       <c r="D172" t="n">
-        <v>439</v>
+        <v>415</v>
       </c>
     </row>
     <row r="173">
@@ -3545,7 +3545,7 @@
         </is>
       </c>
       <c r="D173" t="n">
-        <v>440</v>
+        <v>420</v>
       </c>
     </row>
     <row r="174">
@@ -3554,16 +3554,16 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>SNW</t>
+          <t>정확도</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>SNW</t>
+          <t>정확도</t>
         </is>
       </c>
       <c r="D174" t="n">
-        <v>441</v>
+        <v>435</v>
       </c>
     </row>
     <row r="175">
@@ -3572,16 +3572,16 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>템플러</t>
+          <t>후니케이스</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>템플러</t>
+          <t>후니케이스</t>
         </is>
       </c>
       <c r="D175" t="n">
-        <v>442</v>
+        <v>438</v>
       </c>
     </row>
     <row r="176">
@@ -3590,16 +3590,16 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>클리카</t>
+          <t>액티몬</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>클리카</t>
+          <t>액티몬</t>
         </is>
       </c>
       <c r="D176" t="n">
-        <v>443</v>
+        <v>438</v>
       </c>
     </row>
     <row r="177">
@@ -3608,16 +3608,16 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>클리카</t>
+          <t>후니케이스</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>클리카</t>
+          <t>후니케이스</t>
         </is>
       </c>
       <c r="D177" t="n">
-        <v>444</v>
+        <v>439</v>
       </c>
     </row>
     <row r="178">
@@ -3626,16 +3626,16 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>클리카</t>
+          <t>액티몬</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>클리카</t>
+          <t>액티몬</t>
         </is>
       </c>
       <c r="D178" t="n">
-        <v>445</v>
+        <v>439</v>
       </c>
     </row>
     <row r="179">
@@ -3644,16 +3644,16 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>클리카</t>
+          <t>후니케이스</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>클리카</t>
+          <t>후니케이스</t>
         </is>
       </c>
       <c r="D179" t="n">
-        <v>446</v>
+        <v>440</v>
       </c>
     </row>
     <row r="180">
@@ -3662,16 +3662,16 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>클리카</t>
+          <t>액티몬</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>클리카</t>
+          <t>액티몬</t>
         </is>
       </c>
       <c r="D180" t="n">
-        <v>447</v>
+        <v>440</v>
       </c>
     </row>
     <row r="181">
@@ -3680,16 +3680,16 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>클리카</t>
+          <t>SNW</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>클리카</t>
+          <t>SNW</t>
         </is>
       </c>
       <c r="D181" t="n">
-        <v>448</v>
+        <v>441</v>
       </c>
     </row>
     <row r="182">
@@ -3698,16 +3698,16 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>클리카</t>
+          <t>템플러</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>클리카</t>
+          <t>템플러</t>
         </is>
       </c>
       <c r="D182" t="n">
-        <v>449</v>
+        <v>442</v>
       </c>
     </row>
     <row r="183">
@@ -3725,7 +3725,7 @@
         </is>
       </c>
       <c r="D183" t="n">
-        <v>450</v>
+        <v>443</v>
       </c>
     </row>
     <row r="184">
@@ -3743,7 +3743,7 @@
         </is>
       </c>
       <c r="D184" t="n">
-        <v>451</v>
+        <v>444</v>
       </c>
     </row>
     <row r="185">
@@ -3761,7 +3761,7 @@
         </is>
       </c>
       <c r="D185" t="n">
-        <v>453</v>
+        <v>445</v>
       </c>
     </row>
     <row r="186">
@@ -3779,7 +3779,7 @@
         </is>
       </c>
       <c r="D186" t="n">
-        <v>457</v>
+        <v>446</v>
       </c>
     </row>
     <row r="187">
@@ -3797,7 +3797,7 @@
         </is>
       </c>
       <c r="D187" t="n">
-        <v>461</v>
+        <v>447</v>
       </c>
     </row>
     <row r="188">
@@ -3815,7 +3815,7 @@
         </is>
       </c>
       <c r="D188" t="n">
-        <v>462</v>
+        <v>448</v>
       </c>
     </row>
     <row r="189">
@@ -3824,16 +3824,16 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>정확도</t>
+          <t>클리카</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>정확도</t>
+          <t>클리카</t>
         </is>
       </c>
       <c r="D189" t="n">
-        <v>475</v>
+        <v>449</v>
       </c>
     </row>
     <row r="190">
@@ -3842,15 +3842,141 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
+          <t>클리카</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>클리카</t>
+        </is>
+      </c>
+      <c r="D190" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>클리카</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>클리카</t>
+        </is>
+      </c>
+      <c r="D191" t="n">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>클리카</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>클리카</t>
+        </is>
+      </c>
+      <c r="D192" t="n">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>클리카</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>클리카</t>
+        </is>
+      </c>
+      <c r="D193" t="n">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>클리카</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>클리카</t>
+        </is>
+      </c>
+      <c r="D194" t="n">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>클리카</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>클리카</t>
+        </is>
+      </c>
+      <c r="D195" t="n">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>정확도</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>정확도</t>
+        </is>
+      </c>
+      <c r="D196" t="n">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
           <t>템플러</t>
         </is>
       </c>
-      <c r="C190" t="inlineStr">
+      <c r="C197" t="inlineStr">
         <is>
           <t>템플러</t>
         </is>
       </c>
-      <c r="D190" t="n">
+      <c r="D197" t="n">
         <v>479</v>
       </c>
     </row>
